--- a/Dataset/Dataset sementara.xlsx
+++ b/Dataset/Dataset sementara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febyk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febyk\Documents\GitHub\Detection_OOD\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2460FC-91E9-4427-93C6-C02A88B1AD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5FBEF-CA30-4B4C-90EC-9CCE1C42B748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_ood (1)" sheetId="1" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2007,11 +2007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5461,11 +5461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A93" sqref="A1:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Dataset/Dataset sementara.xlsx
+++ b/Dataset/Dataset sementara.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febyk\Documents\GitHub\Detection_OOD\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5FBEF-CA30-4B4C-90EC-9CCE1C42B748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70731133-7B90-41A3-ACC0-47D720767DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_ood (1)" sheetId="1" r:id="rId1"/>
     <sheet name="Class_id" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="590">
   <si>
     <t>nama</t>
   </si>
@@ -1152,13 +1162,652 @@
   </si>
   <si>
     <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Temukan data mahasiswa dengan nama adi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tampilkan daftar nama dosen </t>
+  </si>
+  <si>
+    <t>Berikan data dosen pembimbing Nadia Rizky Hairunnisa</t>
+  </si>
+  <si>
+    <t>Siapa dosen yang mengajar mata kuliah matematika dasar ?</t>
+  </si>
+  <si>
+    <t>Tampilkan data mahasiswa bernama Dahlia</t>
+  </si>
+  <si>
+    <t>Berapa nip pak naufal rachmatullah?</t>
+  </si>
+  <si>
+    <t>Apa saja mata kuliah pilihan yang bisa diambil pada semester 6?</t>
+  </si>
+  <si>
+    <t>Tampilkan daftar nama mahasiswa yang berjenis kelamin perempuan pada jurusan Teknik Informatika angkatan 2018</t>
+  </si>
+  <si>
+    <t>temukan nama mahasiswa yang memiliki nim 09021181823168</t>
+  </si>
+  <si>
+    <t>Berikan data dosen pembimbing Febyk Alek Satria</t>
+  </si>
+  <si>
+    <t>Berapa IPK mahasiswa dengan NIM 09021¹81823003 ?</t>
+  </si>
+  <si>
+    <t>Berapa nip pak qurhanul rizqie?</t>
+  </si>
+  <si>
+    <t>Berapa jumlah mahasiswa aktif teknik informatika saat ini?</t>
+  </si>
+  <si>
+    <t>temukan mahasiswa yang berjenis kelamin wanita</t>
+  </si>
+  <si>
+    <t>nilai mahasiswa nim 09021181823003</t>
+  </si>
+  <si>
+    <t>Berikan data dosen pembimbing Adi Kurniawan</t>
+  </si>
+  <si>
+    <t>Sebutkan nama dosen yang mengajar pada bidang pengolahan citra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampilkan mahasiswa teknik informatika angkatan 2017 yang masih belum lulus? </t>
+  </si>
+  <si>
+    <t>tolong cari kode mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t>temukan mahasiswa kalkulus dengan nilai E</t>
+  </si>
+  <si>
+    <t>Cari data mahasiswa yang memiliki nilai Suliet &gt; 600</t>
+  </si>
+  <si>
+    <t>Berikan IP semster 1 sampai IP semester 4 untuk mahasiswa bernama Adi Kurniawan</t>
+  </si>
+  <si>
+    <t>Sebutkan nama dosen yang mengajar pada bidang jaringan komputer</t>
+  </si>
+  <si>
+    <t>Siapa saja dosen teknik informatika yang berjenis kelamin perempuan?</t>
+  </si>
+  <si>
+    <t>Tolong berikan daftar nama mahasiswa yang berjenis kelamin wanita</t>
+  </si>
+  <si>
+    <t>mahasiswa bimbingan abdiansyah</t>
+  </si>
+  <si>
+    <t>Berikan data mahasiswa dengan IPK &gt; 3.8</t>
+  </si>
+  <si>
+    <t>Carikan data mahasiswa dengan NIM 09021281823051</t>
+  </si>
+  <si>
+    <t>Siapa pembimbing TA dari mahasiswa nim xxxxxxxx</t>
+  </si>
+  <si>
+    <t>sebutkan mata kuliah pilihan pada semester 7</t>
+  </si>
+  <si>
+    <t>Siapa saja dosen teknik informatika yang berjenis kelamin laki-laki?</t>
+  </si>
+  <si>
+    <t>Minta daftar dosen teknik informatika</t>
+  </si>
+  <si>
+    <t>Tampilkan data mahasiswa per angkatan yang blm lulus</t>
+  </si>
+  <si>
+    <t>sebutkan mata kuliah pilihan pada semester 5</t>
+  </si>
+  <si>
+    <t>Temukan kode mata kuliah Probabilitas dan Statistika</t>
+  </si>
+  <si>
+    <t>Munculkan nama mahasiswa angkatan 2018 yang sudah menyelesaikan skripsi</t>
+  </si>
+  <si>
+    <t>Temukan kode mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t>Berapa NIP dosen atas nama abdiansyah?</t>
+  </si>
+  <si>
+    <t>Tampilkan nilai saya xxxx</t>
+  </si>
+  <si>
+    <t>Berapa jumlah mahasiswa Teknik Informatika Reguler 2018?</t>
+  </si>
+  <si>
+    <t>Berapa jumlah mahasiswa teknik infromatika 2021?</t>
+  </si>
+  <si>
+    <t>Siapa nama mahasiswa yang memiliki NIM 09021281823039?</t>
+  </si>
+  <si>
+    <t>Tampilkan jumlah sks yang sudah diambil oleh mahasiswa dengan nim 09021281823165!</t>
+  </si>
+  <si>
+    <t>Cari nama dosen yang mengajar mata kuliah Algoritma dan Pemrograman III</t>
+  </si>
+  <si>
+    <t>Berapa jumlah SKS untuk mata kuliah Kalkulus ?</t>
+  </si>
+  <si>
+    <t>Berapa jumlah sks yang harus ditempuh untuk lulus di Jurusan Teknik Informatika?</t>
+  </si>
+  <si>
+    <t>Tampilkan profil dosen atas nama abdiansyah</t>
+  </si>
+  <si>
+    <t>Berapa jumlah mahasiswa Teknik Informatika Bilingual 2018?</t>
+  </si>
+  <si>
+    <t>Tampilkan daftar mata kuliah yang sudah diambil oleh mahasiswa dengan nim 09021281823165!</t>
+  </si>
+  <si>
+    <t>Tampilkan data mahasiswa yang sudah lulus</t>
+  </si>
+  <si>
+    <t>Tampilkan daftar nama mahasiswa Teknik Informatika Reguler 2015</t>
+  </si>
+  <si>
+    <t>Siapa saja dosen pengampu mata kuliah algoritma dan pemrograman?</t>
+  </si>
+  <si>
+    <t>Berapa nip pak Abdiansah ?</t>
+  </si>
+  <si>
+    <t>Berapa nim mahasiswa bernama Virani Amanda ?</t>
+  </si>
+  <si>
+    <t>Tampilkan nama dan nip kepala jurusan teknik informatika</t>
+  </si>
+  <si>
+    <t>Berika daftar nama mahasiswa berjenis kelamin perempuan angkatan 2020</t>
+  </si>
+  <si>
+    <t>Tampilkan mahasiswa dengan IPK diatas 3.5</t>
+  </si>
+  <si>
+    <t>Apa nama mata kuliah dengan kode kelas FIK20022?</t>
+  </si>
+  <si>
+    <t>Siapakah pemilik NIM 09021281823172?</t>
+  </si>
+  <si>
+    <t>Tampilkan data NIM seluruh mahasiswa angkatan 2018</t>
+  </si>
+  <si>
+    <t>Siapa nama mahasiswa yang memiliki nim 09021281823057</t>
+  </si>
+  <si>
+    <t>Tampilkan jadwal mata kuliah Matriks dan Vektor</t>
+  </si>
+  <si>
+    <t>Tampilkan data pribadi</t>
+  </si>
+  <si>
+    <t>Tampilkan informasi data pribadi</t>
+  </si>
+  <si>
+    <t>Tampilkan angkatan</t>
+  </si>
+  <si>
+    <t>Tampilkan tahun angkatan</t>
+  </si>
+  <si>
+    <t>tampilkan mahasiswa</t>
+  </si>
+  <si>
+    <t>tampilkan nama mahasiswa</t>
+  </si>
+  <si>
+    <t>lihat nilai uas dan uts</t>
+  </si>
+  <si>
+    <t>sebutkan nama, alamat, dan kota mahasiswa</t>
+  </si>
+  <si>
+    <t>lihat mahasiswa yang nimnya 10113005</t>
+  </si>
+  <si>
+    <t>tampilkan nim mahasiswa yang namanya jamal</t>
+  </si>
+  <si>
+    <t>tampilkan nama mahasiswa yang jenis kelaminnya perempuan</t>
+  </si>
+  <si>
+    <t>tampilkan mahasiswa berdasarkan jenis kelamin</t>
+  </si>
+  <si>
+    <t>tampilkan nilai uas diurutkan berdasarkan paling kecil</t>
+  </si>
+  <si>
+    <t>lihat mahasiswa yang tinggal di bandung dan namanya ahmad</t>
+  </si>
+  <si>
+    <t>tampilkan mahasiswa yang berjenis kelamin perempuan dan tinggal di bandung</t>
+  </si>
+  <si>
+    <t>tampilkan kelas dan nilai</t>
+  </si>
+  <si>
+    <t>lihat kelas mahasiswa</t>
+  </si>
+  <si>
+    <t>sebutkan nama, mahasiswa, dan nilai uas</t>
+  </si>
+  <si>
+    <t>sebutkan nama kelas, dan nilai uas</t>
+  </si>
+  <si>
+    <t>sebutkan mahasiswa yang nilai uasnya 80 sampai 90</t>
+  </si>
+  <si>
+    <t>siapa mahasiswa yang uasnya bernilai 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu hasil studi untuk semester 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks pada semester 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk pada semester 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ip pada semester 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semester pendek pada semester 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semester pendek pada semester 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semester pendek pada semester 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semester pendek pada semester 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu rencana studi pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> krs pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks yang diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak sks yang diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> batas sks maksimum yang boleh diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks maksimum yang boleh diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak sks maksimum yang boleh diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadwal mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadwal mata kuliah algoritma pemrograman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadwal mata kuliah algoritma pemrograman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadwal mata kuliah struktur data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jadwal mata kuliah struktur data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen yang mengampu mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen yang mengampu mata kuliah algoritma pemrograman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen yang mengampu mata kuliah algoritma pemrograman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen yang mengampu mata kuliah struktur data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen yang mengampu mata kuliah struktur data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruangan mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruangan mata kuliah algoritma pemrograman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruangan mata kuliah algoritma pemrograman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruangan mata kuliah struktur data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ruangan mata kuliah struktur data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sks pada mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sks pada mata kuliah algoritma pemrograman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sks pada mata kuliah algoritma pemrograman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sks pada mata kuliah struktur data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sks pada mata kuliah struktur data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kode mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kode mata kuliah algoritma pemrograman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kode mata kuliah algoritma pemrograman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kode mata kuliah struktur data 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kode mata kuliah struktur data 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah apa saja yang dapat diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah apa saja yang bisa diambil pada semester ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah apa saja yang dapat diambil pada semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah apa saja yang bisa diambil pada semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> batas maksimum yang boleh diambil pada semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah maksimum yang boleh diambil pada semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak maksimum yang boleh diambil pada semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah sks yang diambil pada semster pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak sks yang diambil pada semster pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kartu rencana studi semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> krs semester pendek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen pembimbing akademik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama dosen PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semester saat ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> semester yang sedang dijalani saat ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nomor induk mahasiswa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIP dosen pembimbing akademik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nomor induk pegawai dosen pembimbing akademik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NIP dosen PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nomor induk pegawai dosen PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama pribadi sesuai yang tercantum pada akademik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nama pribadi sesuai yang tertera pada akademik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> program studi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prodi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> batas akhir pengisian KRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanggal tenggat pengisian KRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanggal mulai pengisian KRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awal pengisian KRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> batas akhir pengisian KPRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanggal tenggat pengisian KPRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanggal mulai pengisian KPRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awal pengisian KPRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> transkip nilai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rekap nilai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total sks yang sedang ditempuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keseluruhan sks yang sedang ditempuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total sks yang sudah ditempuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> keseluruhan sks yang sudah ditempuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ipk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> index prestasi kumulatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumlah mutu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banyak mutu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history mata kuliah kalkulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history mata kuliah algoritma pemrogramman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history mata kuliah algoritma pemrogramman 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history mata kuliah struktur diskrit 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history mata kuliah struktur diskrit 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah apa saja yang mengulang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> daftar mata kuliah apa saja yang mengulang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah dengan nilai A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah dengan nilai B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah dengan nilai C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah dengan nilai D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mata kuliah dengan nilai E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history suliet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> history usept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanggal test suliet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tanggal test usept</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hasil test suliet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hasil test usept</t>
+  </si>
+  <si>
+    <t>Rekomendasi channel YouTube yang dibutuhkan?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,8 +1954,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1486,8 +2145,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1602,6 +2267,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1647,12 +2327,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2010,18 +2694,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30.453125" customWidth="1"/>
     <col min="2" max="2" width="69.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2739,7 @@
         <v>1001871887563</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2072,7 +2756,7 @@
         <v>1017737417754</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2773,7 @@
         <v>1020754711215</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2790,7 @@
         <v>1028025200604</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2123,7 +2807,7 @@
         <v>1040080324595</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2824,7 @@
         <v>1041718629174</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2157,7 +2841,7 @@
         <v>1043097768519</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +2858,7 @@
         <v>1054384765850</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2875,7 @@
         <v>1057454226937</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2208,7 +2892,7 @@
         <v>1058025870946</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2225,7 +2909,7 @@
         <v>1062120216917</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2242,7 +2926,7 @@
         <v>1075951648850</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2259,7 +2943,7 @@
         <v>1082938354699</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2276,7 +2960,7 @@
         <v>1087017554796</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2293,7 +2977,7 @@
         <v>1094914850372</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2310,7 +2994,7 @@
         <v>1098738151578</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2327,7 +3011,7 @@
         <v>1100164038315</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2344,7 +3028,7 @@
         <v>1101670713982</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2361,7 +3045,7 @@
         <v>1104016414816</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2378,7 +3062,7 @@
         <v>1105582977303</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2395,7 +3079,7 @@
         <v>1114522329690</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +3096,7 @@
         <v>1116636425804</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2429,7 +3113,7 @@
         <v>1133351432077</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +3130,7 @@
         <v>1143511047223</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2463,7 +3147,7 @@
         <v>1146709443012</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2480,7 +3164,7 @@
         <v>1161977649062</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2497,7 +3181,7 @@
         <v>1174322061490</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +3198,7 @@
         <v>1198501294950</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +3215,7 @@
         <v>1202110892631</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2548,7 +3232,7 @@
         <v>1232032082522</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -2565,7 +3249,7 @@
         <v>1233970059710</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2582,7 +3266,7 @@
         <v>1236528494810</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2599,7 +3283,7 @@
         <v>1238174593934</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +3300,7 @@
         <v>1241580630990</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2633,7 +3317,7 @@
         <v>1258924160091</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2650,7 +3334,7 @@
         <v>1259400103401</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2667,7 +3351,7 @@
         <v>1262137331275</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -2684,7 +3368,7 @@
         <v>1264814646095</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -2701,7 +3385,7 @@
         <v>1265070842463</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2718,7 +3402,7 @@
         <v>1267259158307</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2735,7 +3419,7 @@
         <v>1283091157870</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2752,7 +3436,7 @@
         <v>1293432987307</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2769,7 +3453,7 @@
         <v>1294784545785</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +3470,7 @@
         <v>1304922272230</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -2803,7 +3487,7 @@
         <v>1306443468944</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -2820,7 +3504,7 @@
         <v>1308048406926</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2837,7 +3521,7 @@
         <v>1309202391530</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2854,7 +3538,7 @@
         <v>1309526971578</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2871,7 +3555,7 @@
         <v>1315237299343</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2888,7 +3572,7 @@
         <v>1318668356340</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +3589,7 @@
         <v>1329649482630</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2922,7 +3606,7 @@
         <v>1341583324732</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2939,7 +3623,7 @@
         <v>1344034496665</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +3640,7 @@
         <v>1351973101764</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2973,7 +3657,7 @@
         <v>1352976659032</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2990,7 +3674,7 @@
         <v>1365004445567</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -3007,7 +3691,7 @@
         <v>1371481894256</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3024,7 +3708,7 @@
         <v>1375899204759</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3041,7 +3725,7 @@
         <v>1377047241679</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -3058,7 +3742,7 @@
         <v>1379904565033</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -3075,7 +3759,7 @@
         <v>1384112274965</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -3092,7 +3776,7 @@
         <v>1396933680069</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -3109,7 +3793,7 @@
         <v>1401356676455</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3126,7 +3810,7 @@
         <v>1423339682210</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -3143,7 +3827,7 @@
         <v>1430987146450</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -3160,7 +3844,7 @@
         <v>1433891486727</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>46</v>
       </c>
@@ -3177,7 +3861,7 @@
         <v>1441238540129</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -3194,7 +3878,7 @@
         <v>1449332125865</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -3211,7 +3895,7 @@
         <v>1452670934664</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -3228,7 +3912,7 @@
         <v>1455448472468</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -3245,7 +3929,7 @@
         <v>1493299006628</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3262,7 +3946,7 @@
         <v>1494571053386</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3279,7 +3963,7 @@
         <v>1516450113263</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3296,7 +3980,7 @@
         <v>1517779006685</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -3313,7 +3997,7 @@
         <v>1532210442304</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3330,7 +4014,7 @@
         <v>1532456342574</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -3347,7 +4031,7 @@
         <v>1533218822694</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -3364,7 +4048,7 @@
         <v>1537363100423</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -3381,7 +4065,7 @@
         <v>1543965744050</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3398,7 +4082,7 @@
         <v>1545128501188</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -3415,7 +4099,7 @@
         <v>1551973898890</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -3432,7 +4116,7 @@
         <v>1555186156595</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -3449,7 +4133,7 @@
         <v>1556930971804</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -3466,7 +4150,7 @@
         <v>1558056469178</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -3483,7 +4167,7 @@
         <v>1567506375210</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -3500,7 +4184,7 @@
         <v>1574750840583</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -3517,7 +4201,7 @@
         <v>1578243501811</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>46</v>
       </c>
@@ -3534,7 +4218,7 @@
         <v>1601578389259</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -3551,7 +4235,7 @@
         <v>1609927499803</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -3568,7 +4252,7 @@
         <v>1618209149874</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -3585,7 +4269,7 @@
         <v>1623625563047</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>55</v>
       </c>
@@ -3602,7 +4286,7 @@
         <v>1624781759548</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -3619,7 +4303,7 @@
         <v>1629501419359</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -3636,7 +4320,7 @@
         <v>1770750634400</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -3653,7 +4337,7 @@
         <v>1806004919080</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3670,7 +4354,7 @@
         <v>1819684640400</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3687,7 +4371,7 @@
         <v>1833585036160</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3704,7 +4388,7 @@
         <v>1845809774540</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3721,7 +4405,7 @@
         <v>1890170312980</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3738,7 +4422,7 @@
         <v>1956936989390</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +4439,7 @@
         <v>2008872326380</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -3772,7 +4456,7 @@
         <v>2032575025580</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3789,7 +4473,7 @@
         <v>2126794733120</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -3806,7 +4490,7 @@
         <v>2233788144110</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -3823,7 +4507,7 @@
         <v>2289637998600</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>29</v>
       </c>
@@ -3840,7 +4524,7 @@
         <v>2356638477370</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +4541,7 @@
         <v>2408198646040</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -3874,7 +4558,7 @@
         <v>2410007405730</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3891,7 +4575,7 @@
         <v>2700093758180</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -3908,7 +4592,7 @@
         <v>2704910145430</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -3925,7 +4609,7 @@
         <v>2716303671700</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -3942,7 +4626,7 @@
         <v>2730985860230</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>148</v>
       </c>
@@ -3959,7 +4643,7 @@
         <v>2732689096820</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3976,7 +4660,7 @@
         <v>2816254146150</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -3993,7 +4677,7 @@
         <v>2930234340150</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>152</v>
       </c>
@@ -4010,7 +4694,7 @@
         <v>2951367156480</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -4027,7 +4711,7 @@
         <v>2984471497900</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -4044,7 +4728,7 @@
         <v>3068386659110</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -4061,7 +4745,7 @@
         <v>3123701305850</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -4078,7 +4762,7 @@
         <v>3178209413830</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>46</v>
       </c>
@@ -4095,7 +4779,7 @@
         <v>3211540174690</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4796,7 @@
         <v>3381968675070</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -4129,7 +4813,7 @@
         <v>3768386843590</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>156</v>
       </c>
@@ -4146,7 +4830,7 @@
         <v>4145559058370</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -4163,7 +4847,7 @@
         <v>4260525145440</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -4180,7 +4864,7 @@
         <v>4336449463540</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -4197,7 +4881,7 @@
         <v>4425326082600</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -4214,7 +4898,7 @@
         <v>4870096903770</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -4231,7 +4915,7 @@
         <v>4903368602360</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>49</v>
       </c>
@@ -4248,7 +4932,7 @@
         <v>4925922092700</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -4265,7 +4949,7 @@
         <v>4989445166050</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -4282,7 +4966,7 @@
         <v>5008886463540</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -4299,7 +4983,7 @@
         <v>5023408917700</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -4316,7 +5000,7 @@
         <v>5250606406640</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -4333,7 +5017,7 @@
         <v>5340981147760</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -4350,7 +5034,7 @@
         <v>5398797099670</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -4367,7 +5051,7 @@
         <v>5506944054500</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -4384,7 +5068,7 @@
         <v>5581498374270</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -4401,7 +5085,7 @@
         <v>5584066673630</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -4418,7 +5102,7 @@
         <v>5639131007670</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -4435,7 +5119,7 @@
         <v>5860454798250</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>25</v>
       </c>
@@ -4452,7 +5136,7 @@
         <v>5873119085470</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>181</v>
       </c>
@@ -4469,7 +5153,7 @@
         <v>5906982307040</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -4486,7 +5170,7 @@
         <v>6005048412000</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -4503,7 +5187,7 @@
         <v>6032594140200</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>25</v>
       </c>
@@ -4520,7 +5204,7 @@
         <v>6242789801770</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +5221,7 @@
         <v>6285996624050</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -4554,7 +5238,7 @@
         <v>6313845978830</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +5255,7 @@
         <v>6333219942690</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -4588,7 +5272,7 @@
         <v>6367018396250</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -4605,7 +5289,7 @@
         <v>6404050315910</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>38</v>
       </c>
@@ -4622,7 +5306,7 @@
         <v>6519778291270</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -4639,7 +5323,7 @@
         <v>6572762736400</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -4656,7 +5340,7 @@
         <v>6655912832000</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -4673,7 +5357,7 @@
         <v>6708216298060</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -4690,7 +5374,7 @@
         <v>6720255992730</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -4707,7 +5391,7 @@
         <v>6747257825140</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>197</v>
       </c>
@@ -4724,7 +5408,7 @@
         <v>7113565963080</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -4741,7 +5425,7 @@
         <v>7211364643000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -4758,7 +5442,7 @@
         <v>7216609228560</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4775,7 +5459,7 @@
         <v>7222404549420</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -4792,7 +5476,7 @@
         <v>7333191532820</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -4809,7 +5493,7 @@
         <v>7380507488710</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +5510,7 @@
         <v>7572116302390</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -4843,7 +5527,7 @@
         <v>7682977665420</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +5544,7 @@
         <v>7790079032610</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -4877,7 +5561,7 @@
         <v>7833945539920</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -4894,7 +5578,7 @@
         <v>7857164377950</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>29</v>
       </c>
@@ -4911,7 +5595,7 @@
         <v>8135869368040</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4928,7 +5612,7 @@
         <v>8247870388270</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -4945,7 +5629,7 @@
         <v>8327479273490</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4962,7 +5646,7 @@
         <v>8427616515400</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -4979,7 +5663,7 @@
         <v>8527094143920</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -4996,7 +5680,7 @@
         <v>8594075978450</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>44</v>
       </c>
@@ -5013,7 +5697,7 @@
         <v>8688309803570</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -5030,7 +5714,7 @@
         <v>8747053870950</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5047,7 +5731,7 @@
         <v>8855839341930</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -5064,7 +5748,7 @@
         <v>8893655170430</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>46</v>
       </c>
@@ -5081,7 +5765,7 @@
         <v>8917149164060</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>203</v>
       </c>
@@ -5098,7 +5782,7 @@
         <v>8940821158700</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>34</v>
       </c>
@@ -5115,7 +5799,7 @@
         <v>8959240199800</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>44</v>
       </c>
@@ -5132,7 +5816,7 @@
         <v>8992549992240</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>112</v>
       </c>
@@ -5149,7 +5833,7 @@
         <v>9044549253060</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -5166,7 +5850,7 @@
         <v>9093467382540</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>156</v>
       </c>
@@ -5183,7 +5867,7 @@
         <v>9154832550240</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -5200,7 +5884,7 @@
         <v>9199199807730</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -5217,7 +5901,7 @@
         <v>9200200498000</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -5234,7 +5918,7 @@
         <v>9291644910830</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>29</v>
       </c>
@@ -5251,7 +5935,7 @@
         <v>9379266385780</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5268,7 +5952,7 @@
         <v>9414902563020</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>29</v>
       </c>
@@ -5285,7 +5969,7 @@
         <v>9498285391520</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -5302,7 +5986,7 @@
         <v>9622624132580</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -5319,7 +6003,7 @@
         <v>9711306079910</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>29</v>
       </c>
@@ -5336,7 +6020,7 @@
         <v>9718012006570</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>44</v>
       </c>
@@ -5353,7 +6037,7 @@
         <v>9744663959590</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>148</v>
       </c>
@@ -5370,7 +6054,7 @@
         <v>9772422655430</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>239</v>
       </c>
@@ -5387,7 +6071,7 @@
         <v>9832231652860</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -5404,7 +6088,7 @@
         <v>9841371413940</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -5421,7 +6105,7 @@
         <v>9897977269780</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -5438,7 +6122,7 @@
         <v>9924955301040</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -5464,16 +6148,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A93" sqref="A1:B130"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="71.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.5">
       <c r="A1" s="4" t="s">
         <v>281</v>
       </c>
@@ -5481,1033 +6165,1033 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>461</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="2" t="s">
-        <v>247</v>
+        <v>462</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="2" t="s">
-        <v>248</v>
+        <v>463</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="3" t="s">
-        <v>249</v>
+        <v>464</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.5">
       <c r="A7" s="3" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.5">
       <c r="A8" s="3" t="s">
-        <v>251</v>
+        <v>466</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.5">
       <c r="A9" s="3" t="s">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.5">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>468</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.5">
       <c r="A11" s="3" t="s">
-        <v>254</v>
+        <v>469</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.5">
       <c r="A12" s="3" t="s">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.5">
       <c r="A13" s="3" t="s">
-        <v>256</v>
+        <v>471</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.5">
       <c r="A14" s="3" t="s">
-        <v>257</v>
+        <v>472</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.5">
       <c r="A15" s="3" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="15.5">
       <c r="A16" s="3" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="3" t="s">
-        <v>260</v>
+        <v>475</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="3" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.5">
       <c r="A19" s="3" t="s">
-        <v>262</v>
+        <v>477</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.5">
       <c r="A20" s="3" t="s">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.5">
       <c r="A21" s="3" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.5">
       <c r="A22" s="3" t="s">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.5">
       <c r="A23" s="3" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.5">
       <c r="A24" s="3" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.5">
       <c r="A25" s="3" t="s">
-        <v>268</v>
+        <v>483</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.5">
       <c r="A26" s="3" t="s">
-        <v>269</v>
+        <v>484</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15.5">
       <c r="A27" s="3" t="s">
-        <v>270</v>
+        <v>485</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="3" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.5">
       <c r="A29" s="3" t="s">
-        <v>272</v>
+        <v>487</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="3" t="s">
-        <v>273</v>
+        <v>488</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="3" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="3" t="s">
-        <v>275</v>
+        <v>490</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="3" t="s">
-        <v>276</v>
+        <v>491</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.5">
       <c r="A34" s="3" t="s">
-        <v>277</v>
+        <v>492</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="3" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="3" t="s">
-        <v>279</v>
+        <v>494</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="3" t="s">
-        <v>280</v>
+        <v>495</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="3" t="s">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="3" t="s">
-        <v>284</v>
+        <v>497</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="3" t="s">
-        <v>285</v>
+        <v>498</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="3" t="s">
-        <v>286</v>
+        <v>499</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.5">
       <c r="A42" s="3" t="s">
-        <v>287</v>
+        <v>500</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15.5">
       <c r="A43" s="3" t="s">
-        <v>288</v>
+        <v>501</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="15.5">
       <c r="A44" s="3" t="s">
-        <v>289</v>
+        <v>502</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15.5">
       <c r="A45" s="3" t="s">
-        <v>290</v>
+        <v>503</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="3" t="s">
-        <v>291</v>
+        <v>504</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.5">
       <c r="A47" s="3" t="s">
-        <v>292</v>
+        <v>505</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15.5">
       <c r="A48" s="3" t="s">
-        <v>293</v>
+        <v>506</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15.5">
       <c r="A49" s="3" t="s">
-        <v>294</v>
+        <v>507</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15.5">
       <c r="A50" s="3" t="s">
-        <v>295</v>
+        <v>508</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15.5">
       <c r="A51" s="3" t="s">
-        <v>296</v>
+        <v>509</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.5">
       <c r="A52" s="3" t="s">
-        <v>297</v>
+        <v>510</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15.5">
       <c r="A53" s="3" t="s">
-        <v>298</v>
+        <v>511</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15.5">
       <c r="A54" s="3" t="s">
-        <v>299</v>
+        <v>512</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15.5">
       <c r="A55" s="3" t="s">
-        <v>300</v>
+        <v>513</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15.5">
       <c r="A56" s="3" t="s">
-        <v>301</v>
+        <v>514</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15.5">
       <c r="A57" s="3" t="s">
-        <v>302</v>
+        <v>515</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15.5">
       <c r="A58" s="3" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.5">
       <c r="A59" s="3" t="s">
-        <v>304</v>
+        <v>517</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15.5">
       <c r="A60" s="3" t="s">
-        <v>305</v>
+        <v>518</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15.5">
       <c r="A61" s="3" t="s">
-        <v>306</v>
+        <v>519</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15.5">
       <c r="A62" s="3" t="s">
-        <v>307</v>
+        <v>520</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.5">
       <c r="A63" s="3" t="s">
-        <v>308</v>
+        <v>521</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15.5">
       <c r="A64" s="3" t="s">
-        <v>309</v>
+        <v>522</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15.5">
       <c r="A65" s="3" t="s">
-        <v>310</v>
+        <v>523</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15.5">
       <c r="A66" s="3" t="s">
-        <v>311</v>
+        <v>524</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15.5">
       <c r="A67" s="3" t="s">
-        <v>312</v>
+        <v>525</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15.5">
       <c r="A68" s="3" t="s">
-        <v>313</v>
+        <v>526</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15.5">
       <c r="A69" s="3" t="s">
-        <v>314</v>
+        <v>527</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15.5">
       <c r="A70" s="1" t="s">
-        <v>315</v>
+        <v>528</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15.5">
       <c r="A71" s="1" t="s">
-        <v>316</v>
+        <v>529</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15.5">
       <c r="A72" s="1" t="s">
-        <v>317</v>
+        <v>530</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15.5">
       <c r="A73" s="1" t="s">
-        <v>318</v>
+        <v>531</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15.5">
       <c r="A74" s="1" t="s">
-        <v>319</v>
+        <v>532</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15.5">
       <c r="A75" s="1" t="s">
-        <v>320</v>
+        <v>533</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15.5">
       <c r="A76" s="1" t="s">
-        <v>321</v>
+        <v>534</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.5">
       <c r="A77" s="1" t="s">
-        <v>322</v>
+        <v>535</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15.5">
       <c r="A78" s="1" t="s">
-        <v>323</v>
+        <v>536</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15.5">
       <c r="A79" s="1" t="s">
-        <v>324</v>
+        <v>537</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15.5">
       <c r="A80" s="1" t="s">
-        <v>325</v>
+        <v>538</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15.5">
       <c r="A81" s="1" t="s">
-        <v>326</v>
+        <v>539</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15.5">
       <c r="A82" s="1" t="s">
-        <v>327</v>
+        <v>540</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15.5">
       <c r="A83" s="1" t="s">
-        <v>328</v>
+        <v>541</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15.5">
       <c r="A84" s="1" t="s">
-        <v>329</v>
+        <v>542</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15.5">
       <c r="A85" s="1" t="s">
-        <v>330</v>
+        <v>543</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15.5">
       <c r="A86" s="1" t="s">
-        <v>331</v>
+        <v>544</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.5">
       <c r="A87" s="1" t="s">
-        <v>332</v>
+        <v>545</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15.5">
       <c r="A88" s="1" t="s">
-        <v>333</v>
+        <v>546</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15.5">
       <c r="A89" s="1" t="s">
-        <v>334</v>
+        <v>547</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15.5">
       <c r="A90" s="1" t="s">
-        <v>335</v>
+        <v>548</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15.5">
       <c r="A91" s="1" t="s">
-        <v>336</v>
+        <v>549</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15.5">
       <c r="A92" s="1" t="s">
-        <v>337</v>
+        <v>550</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15.5">
       <c r="A93" s="1" t="s">
-        <v>338</v>
+        <v>551</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15.5">
       <c r="A94" s="1" t="s">
-        <v>339</v>
+        <v>552</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15.5">
       <c r="A95" s="1" t="s">
-        <v>340</v>
+        <v>553</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15.5">
       <c r="A96" s="1" t="s">
-        <v>341</v>
+        <v>554</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15.5">
       <c r="A97" s="1" t="s">
-        <v>342</v>
+        <v>555</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15.5">
       <c r="A98" s="1" t="s">
-        <v>343</v>
+        <v>556</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15.5">
       <c r="A99" s="1" t="s">
-        <v>344</v>
+        <v>557</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15.5">
       <c r="A100" s="1" t="s">
-        <v>345</v>
+        <v>558</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15.5">
       <c r="A101" s="1" t="s">
-        <v>346</v>
+        <v>559</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15.5">
       <c r="A102" s="1" t="s">
-        <v>347</v>
+        <v>560</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15.5">
       <c r="A103" s="1" t="s">
-        <v>348</v>
+        <v>561</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15.5">
       <c r="A104" s="1" t="s">
-        <v>349</v>
+        <v>562</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15.5">
       <c r="A105" s="1" t="s">
-        <v>350</v>
+        <v>563</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15.5">
       <c r="A106" s="1" t="s">
-        <v>351</v>
+        <v>564</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15.5">
       <c r="A107" s="1" t="s">
-        <v>352</v>
+        <v>565</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15.5">
       <c r="A108" s="1" t="s">
-        <v>353</v>
+        <v>566</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15.5">
       <c r="A109" s="1" t="s">
-        <v>354</v>
+        <v>567</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.5">
       <c r="A110" s="2" t="s">
-        <v>355</v>
+        <v>568</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15.5">
       <c r="A111" s="1" t="s">
-        <v>356</v>
+        <v>569</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15.5">
       <c r="A112" s="1" t="s">
-        <v>357</v>
+        <v>570</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="15.5">
       <c r="A113" s="1" t="s">
-        <v>358</v>
+        <v>571</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15.5">
       <c r="A114" s="1" t="s">
-        <v>359</v>
+        <v>572</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="15.5">
       <c r="A115" s="1" t="s">
-        <v>360</v>
+        <v>573</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="15.5">
       <c r="A116" s="1" t="s">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15.5">
       <c r="A117" s="1" t="s">
-        <v>362</v>
+        <v>575</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15.5">
       <c r="A118" s="1" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15.5">
       <c r="A119" s="1" t="s">
-        <v>364</v>
+        <v>577</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15.5">
       <c r="A120" s="1" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15.5">
       <c r="A121" s="1" t="s">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15.5">
       <c r="A122" s="1" t="s">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="15.5">
       <c r="A123" s="1" t="s">
-        <v>368</v>
+        <v>581</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="15.5">
       <c r="A124" s="1" t="s">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="15.5">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>583</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="15.5">
       <c r="A126" s="1" t="s">
-        <v>371</v>
+        <v>584</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="15.5">
       <c r="A127" s="1" t="s">
-        <v>372</v>
+        <v>585</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15.5">
       <c r="A128" s="1" t="s">
-        <v>373</v>
+        <v>586</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="15.5">
       <c r="A129" s="1" t="s">
-        <v>374</v>
+        <v>587</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15.5">
       <c r="A130" s="1" t="s">
-        <v>375</v>
+        <v>588</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>376</v>
@@ -6517,4 +7201,4578 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6588684-F8F3-4F21-AD31-58A231923C74}">
+  <dimension ref="A1:D543"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="118" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.5">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.5">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.5">
+      <c r="A14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.5">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.5">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.5">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.5">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.5">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.5">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.5">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.5">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.5">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.5">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.5">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.5">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.5">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.5">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.5">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.5">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.5">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.5">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.5">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.5">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.5">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.5">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.5">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.5">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.5">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.5">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.5">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.5">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.5">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.5">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.5">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.5">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.5">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.5">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.5">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.5">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.5">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.5">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.5">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.5">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.5">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.5">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.5">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.5">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="15.5">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" ht="15.5">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.5">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.5">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.5">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" ht="15.5">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.5">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.5">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.5">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.5">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.5">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.5">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.5">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.5">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.5">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.5">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.5">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.5">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.5">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.5">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.5">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.5">
+      <c r="A95" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.5">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.5">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.5">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" ht="15.5">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.5">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.5">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" ht="15.5">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" ht="15.5">
+      <c r="A103" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" ht="15.5">
+      <c r="A104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.5">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" ht="15.5">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.5">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.5">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" ht="15.5">
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" ht="15.5">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.5">
+      <c r="A111" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.5">
+      <c r="A112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.5">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.5">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" ht="15.5">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" ht="15.5">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.5">
+      <c r="A117" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" ht="15.5">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" ht="15.5">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.5">
+      <c r="A120" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" ht="15.5">
+      <c r="A121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" ht="15.5">
+      <c r="A122" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" ht="15.5">
+      <c r="A123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.5">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.5">
+      <c r="A125" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" ht="15.5">
+      <c r="A126" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" ht="15.5">
+      <c r="A127" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" ht="15.5">
+      <c r="A128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.5">
+      <c r="A129" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" ht="15.5">
+      <c r="A130" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" ht="15.5">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" ht="15.5">
+      <c r="A132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" ht="15.5">
+      <c r="A133" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" ht="15.5">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" ht="15.5">
+      <c r="A135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" ht="15.5">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="15.5">
+      <c r="A137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.5">
+      <c r="A138" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.5">
+      <c r="A139" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.5">
+      <c r="A140" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.5">
+      <c r="A141" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" ht="15.5">
+      <c r="A142" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.5">
+      <c r="A143" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="5"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.5">
+      <c r="A144" t="s">
+        <v>184</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" ht="15.5">
+      <c r="A145" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.5">
+      <c r="A146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" ht="15.5">
+      <c r="A147" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4" ht="15.5">
+      <c r="A148" t="s">
+        <v>188</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" ht="15.5">
+      <c r="A149" t="s">
+        <v>189</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" ht="15.5">
+      <c r="A150" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" ht="15.5">
+      <c r="A151" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" ht="15.5">
+      <c r="A152" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" ht="15.5">
+      <c r="A153" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" ht="15.5">
+      <c r="A154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" ht="15.5">
+      <c r="A155" t="s">
+        <v>195</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" ht="15.5">
+      <c r="A156" t="s">
+        <v>196</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" ht="15.5">
+      <c r="A157" t="s">
+        <v>198</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" ht="15.5">
+      <c r="A158" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" ht="15.5">
+      <c r="A159" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" ht="15.5">
+      <c r="A160" t="s">
+        <v>201</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" ht="15.5">
+      <c r="A161" t="s">
+        <v>202</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" ht="15.5">
+      <c r="A162" t="s">
+        <v>204</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" ht="15.5">
+      <c r="A163" t="s">
+        <v>205</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" ht="15.5">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" ht="15.5">
+      <c r="A165" t="s">
+        <v>207</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" ht="15.5">
+      <c r="A166" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" ht="15.5">
+      <c r="A167" t="s">
+        <v>209</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" ht="15.5">
+      <c r="A168" t="s">
+        <v>210</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" ht="15.5">
+      <c r="A169" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" ht="15.5">
+      <c r="A170" t="s">
+        <v>212</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="1:4" ht="15.5">
+      <c r="A171" t="s">
+        <v>213</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" ht="15.5">
+      <c r="A172" t="s">
+        <v>214</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" ht="15.5">
+      <c r="A173" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" ht="15.5">
+      <c r="A174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" ht="15.5">
+      <c r="A175" t="s">
+        <v>217</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" ht="15.5">
+      <c r="A176" t="s">
+        <v>218</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" ht="15.5">
+      <c r="A177" t="s">
+        <v>219</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.5">
+      <c r="A178" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" ht="15.5">
+      <c r="A179" t="s">
+        <v>221</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" ht="15.5">
+      <c r="A180" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.5">
+      <c r="A181" t="s">
+        <v>223</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" ht="15.5">
+      <c r="A182" t="s">
+        <v>224</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" ht="15.5">
+      <c r="A183" t="s">
+        <v>225</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" ht="15.5">
+      <c r="A184" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.5">
+      <c r="A185" t="s">
+        <v>227</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" ht="15.5">
+      <c r="A186" t="s">
+        <v>229</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" ht="15.5">
+      <c r="A187" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" ht="15.5">
+      <c r="A188" t="s">
+        <v>231</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" ht="15.5">
+      <c r="A189" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="1:4" ht="15.5">
+      <c r="A190" t="s">
+        <v>233</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" ht="15.5">
+      <c r="A191" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" ht="15.5">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" ht="15.5">
+      <c r="A193" t="s">
+        <v>236</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" ht="15.5">
+      <c r="A194" t="s">
+        <v>237</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" ht="15.5">
+      <c r="A195" t="s">
+        <v>238</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" ht="15.5">
+      <c r="A196" t="s">
+        <v>240</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" ht="15.5">
+      <c r="A197" t="s">
+        <v>241</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" ht="15.5">
+      <c r="A198" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" ht="15.5">
+      <c r="A199" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" ht="15.5">
+      <c r="A200" t="s">
+        <v>244</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" ht="15.5">
+      <c r="A201" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B201" t="s">
+        <v>376</v>
+      </c>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" ht="15.5">
+      <c r="A202" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B202" t="s">
+        <v>376</v>
+      </c>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" ht="15.5">
+      <c r="A203" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B203" t="s">
+        <v>376</v>
+      </c>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" ht="15.5">
+      <c r="A204" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B204" t="s">
+        <v>376</v>
+      </c>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" ht="15.5">
+      <c r="A205" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B205" t="s">
+        <v>376</v>
+      </c>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" ht="15.5">
+      <c r="A206" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B206" t="s">
+        <v>376</v>
+      </c>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" ht="15.5">
+      <c r="A207" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B207" t="s">
+        <v>376</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" ht="15.5">
+      <c r="A208" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B208" t="s">
+        <v>376</v>
+      </c>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" ht="15.5">
+      <c r="A209" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B209" t="s">
+        <v>376</v>
+      </c>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" ht="15.5">
+      <c r="A210" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B210" t="s">
+        <v>376</v>
+      </c>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" ht="15.5">
+      <c r="A211" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B211" t="s">
+        <v>376</v>
+      </c>
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="1:4" ht="15.5">
+      <c r="A212" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B212" t="s">
+        <v>376</v>
+      </c>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" ht="15.5">
+      <c r="A213" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B213" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.5">
+      <c r="A214" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B214" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.5">
+      <c r="A215" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B215" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.5">
+      <c r="A216" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B216" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.5">
+      <c r="A217" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B217" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.5">
+      <c r="A218" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B218" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.5">
+      <c r="A219" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B219" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.5">
+      <c r="A220" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B220" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.5">
+      <c r="A221" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B221" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.5">
+      <c r="A222" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B222" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.5">
+      <c r="A223" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B223" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.5">
+      <c r="A224" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B224" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.5">
+      <c r="A225" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B225" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.5">
+      <c r="A226" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B226" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.5">
+      <c r="A227" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B227" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.5">
+      <c r="A228" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B228" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.5">
+      <c r="A229" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B229" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.5">
+      <c r="A230" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B230" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.5">
+      <c r="A231" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B231" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.5">
+      <c r="A232" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B232" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.5">
+      <c r="A233" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B233" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.5">
+      <c r="A234" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B234" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.5">
+      <c r="A235" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B235" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.5">
+      <c r="A236" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B236" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.5">
+      <c r="A237" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B237" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.5">
+      <c r="A238" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B238" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.5">
+      <c r="A239" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B239" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.5">
+      <c r="A240" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B240" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.5">
+      <c r="A241" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B241" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.5">
+      <c r="A242" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B242" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.5">
+      <c r="A243" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B243" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.5">
+      <c r="A244" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.5">
+      <c r="A245" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B245" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.5">
+      <c r="A246" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B246" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.5">
+      <c r="A247" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B247" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.5">
+      <c r="A248" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B248" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.5">
+      <c r="A249" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B249" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.5">
+      <c r="A250" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B250" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.5">
+      <c r="A251" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B251" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.5">
+      <c r="A252" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B252" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.5">
+      <c r="A253" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B253" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B254" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B255" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B256" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B257" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B258" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B259" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B260" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B261" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B262" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B263" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B264" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.5">
+      <c r="A265" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B265" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.5">
+      <c r="A266" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B266" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.5">
+      <c r="A267" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B267" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.5">
+      <c r="A268" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B268" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.5">
+      <c r="A269" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B269" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.5">
+      <c r="A270" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B270" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.5">
+      <c r="A271" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B271" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.5">
+      <c r="A272" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B272" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.5">
+      <c r="A273" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B273" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.5">
+      <c r="A274" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B274" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.5">
+      <c r="A275" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B275" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.5">
+      <c r="A276" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B276" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.5">
+      <c r="A277" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B277" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.5">
+      <c r="A278" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B278" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.5">
+      <c r="A279" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B279" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.5">
+      <c r="A280" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B280" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.5">
+      <c r="A281" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B281" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.5">
+      <c r="A282" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B282" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.5">
+      <c r="A283" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B283" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.5">
+      <c r="A284" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B284" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.5">
+      <c r="A285" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B285" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.5">
+      <c r="A286" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B286" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.5">
+      <c r="A287" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B287" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.5">
+      <c r="A288" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B288" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.5">
+      <c r="A289" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B289" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15.5">
+      <c r="A290" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B290" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15.5">
+      <c r="A291" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B291" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15.5">
+      <c r="A292" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B292" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15.5">
+      <c r="A293" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B293" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15.5">
+      <c r="A294" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B294" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15.5">
+      <c r="A295" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B295" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15.5">
+      <c r="A296" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B296" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15.5">
+      <c r="A297" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B297" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15.5">
+      <c r="A298" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B298" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15.5">
+      <c r="A299" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B299" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15.5">
+      <c r="A300" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B300" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15.5">
+      <c r="A301" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B301" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15.5">
+      <c r="A302" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B302" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15.5">
+      <c r="A303" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B303" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15.5">
+      <c r="A304" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B304" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15.5">
+      <c r="A305" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B305" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15.5">
+      <c r="A306" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B306" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15.5">
+      <c r="A307" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B307" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15.5">
+      <c r="A308" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B308" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15.5">
+      <c r="A309" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B309" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="15.5">
+      <c r="A310" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B310" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="15.5">
+      <c r="A311" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B311" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="15.5">
+      <c r="A312" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B312" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15.5">
+      <c r="A313" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B313" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="15.5">
+      <c r="A314" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B314" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="15.5">
+      <c r="A315" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B315" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15.5">
+      <c r="A316" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B316" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15.5">
+      <c r="A317" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B317" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15.5">
+      <c r="A318" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B318" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15.5">
+      <c r="A319" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B319" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15.5">
+      <c r="A320" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B320" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15.5">
+      <c r="A321" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B321" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="15.5">
+      <c r="A322" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B322" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="15.5">
+      <c r="A323" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B323" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15.5">
+      <c r="A324" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B324" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="15.5">
+      <c r="A325" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B325" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15.5">
+      <c r="A326" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B326" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15.5">
+      <c r="A327" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B327" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15.5">
+      <c r="A328" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B328" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15.5">
+      <c r="A329" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B329" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15.5">
+      <c r="A330" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B330" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15.5">
+      <c r="A331" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B331" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="15.5">
+      <c r="A332" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B332" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15.5">
+      <c r="A333" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B333" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15.5">
+      <c r="A334" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B334" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15.5">
+      <c r="A335" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B335" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15.5">
+      <c r="A336" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B336" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15.5">
+      <c r="A337" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B337" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15.5">
+      <c r="A338" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B338" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15.5">
+      <c r="A339" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B339" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15.5">
+      <c r="A340" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B340" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15.5">
+      <c r="A341" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B341" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15.5">
+      <c r="A342" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B342" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="15.5">
+      <c r="A343" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B343" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15.5">
+      <c r="A344" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B344" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15.5">
+      <c r="A345" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B345" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15.5">
+      <c r="A346" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B346" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15.5">
+      <c r="A347" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B347" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15.5">
+      <c r="A348" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B348" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15.5">
+      <c r="A349" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B349" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15.5">
+      <c r="A350" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B350" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15.5">
+      <c r="A351" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B351" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15.5">
+      <c r="A352" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B352" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15.5">
+      <c r="A353" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B353" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15.5">
+      <c r="A354" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B354" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15.5">
+      <c r="A355" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B355" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15.5">
+      <c r="A356" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B356" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15.5">
+      <c r="A357" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B357" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15.5">
+      <c r="A358" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B358" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="15.5">
+      <c r="A359" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B359" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15.5">
+      <c r="A360" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B360" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15.5">
+      <c r="A361" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B361" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15.5">
+      <c r="A362" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B362" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15.5">
+      <c r="A363" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B363" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15.5">
+      <c r="A364" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B364" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15.5">
+      <c r="A365" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B365" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15.5">
+      <c r="A366" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B366" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15.5">
+      <c r="A367" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B367" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15.5">
+      <c r="A368" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B368" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15.5">
+      <c r="A369" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B369" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15.5">
+      <c r="A370" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B370" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15.5">
+      <c r="A371" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B371" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="15.5">
+      <c r="A372" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15.5">
+      <c r="A373" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B373" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15.5">
+      <c r="A374" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B374" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15.5">
+      <c r="A375" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B375" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15.5">
+      <c r="A376" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15.5">
+      <c r="A377" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15.5">
+      <c r="A378" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15.5">
+      <c r="A379" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B379" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15.5">
+      <c r="A380" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B380" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15.5">
+      <c r="A381" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B381" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15.5">
+      <c r="A382" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B382" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15.5">
+      <c r="A383" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B383" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15.5">
+      <c r="A384" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B384" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15.5">
+      <c r="A385" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B385" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15.5">
+      <c r="A386" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B386" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15.5">
+      <c r="A387" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B387" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15.5">
+      <c r="A388" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B388" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15.5">
+      <c r="A389" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B389" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15.5">
+      <c r="A390" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B390" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15.5">
+      <c r="A391" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B391" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15.5">
+      <c r="A392" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B392" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15.5">
+      <c r="A393" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B393" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15.5">
+      <c r="A394" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B394" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15.5">
+      <c r="A395" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B395" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15.5">
+      <c r="A396" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B396" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15.5">
+      <c r="A397" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B397" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15.5">
+      <c r="A398" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B398" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15.5">
+      <c r="A399" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B399" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15.5">
+      <c r="A400" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B400" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15.5">
+      <c r="A401" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B401" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15.5">
+      <c r="A402" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B402" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15.5">
+      <c r="A403" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B403" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15.5">
+      <c r="A404" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B404" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15.5">
+      <c r="A405" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B405" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15.5">
+      <c r="A406" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B406" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15.5">
+      <c r="A407" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B407" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15.5">
+      <c r="A408" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B408" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15.5">
+      <c r="A409" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B409" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15.5">
+      <c r="A410" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B410" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15.5">
+      <c r="A411" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B411" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15.5">
+      <c r="A412" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B412" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15.5">
+      <c r="A413" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B413" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15.5">
+      <c r="A414" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B414" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15.5">
+      <c r="A415" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B415" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15.5">
+      <c r="A416" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B416" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15.5">
+      <c r="A417" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B417" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15.5">
+      <c r="A418" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B418" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15.5">
+      <c r="A419" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B419" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15.5">
+      <c r="A420" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B420" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15.5">
+      <c r="A421" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B421" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15.5">
+      <c r="A422" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B422" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15.5">
+      <c r="A423" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B423" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15.5">
+      <c r="A424" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B424" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15.5">
+      <c r="A425" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B425" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15.5">
+      <c r="A426" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B426" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15.5">
+      <c r="A427" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B427" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15.5">
+      <c r="A428" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B428" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15.5">
+      <c r="A429" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B429" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15.5">
+      <c r="A430" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B430" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15.5">
+      <c r="A431" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B431" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15.5">
+      <c r="A432" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B432" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15.5">
+      <c r="A433" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B433" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15.5">
+      <c r="A434" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B434" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15.5">
+      <c r="A435" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B435" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15.5">
+      <c r="A436" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B436" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15.5">
+      <c r="A437" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B437" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="15.5">
+      <c r="A438" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B438" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="15.5">
+      <c r="A439" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B439" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15.5">
+      <c r="A440" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B440" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15.5">
+      <c r="A441" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B441" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15.5">
+      <c r="A442" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B442" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15.5">
+      <c r="A443" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B443" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15.5">
+      <c r="A444" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B444" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="15.5">
+      <c r="A445" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B445" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15.5">
+      <c r="A446" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B446" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="15.5">
+      <c r="A447" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B447" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15.5">
+      <c r="A448" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B448" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15.5">
+      <c r="A449" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B449" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15.5">
+      <c r="A450" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B450" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15.5">
+      <c r="A451" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B451" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15.5">
+      <c r="A452" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B452" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15.5">
+      <c r="A453" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B453" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15.5">
+      <c r="A454" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B454" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15.5">
+      <c r="A455" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B455" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15.5">
+      <c r="A456" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B456" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15.5">
+      <c r="A457" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B457" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15.5">
+      <c r="A458" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B458" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15.5">
+      <c r="A459" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B459" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15.5">
+      <c r="A460" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B460" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15.5">
+      <c r="A461" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B461" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15.5">
+      <c r="A462" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B462" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15.5">
+      <c r="A463" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B463" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15.5">
+      <c r="A464" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B464" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15.5">
+      <c r="A465" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B465" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15.5">
+      <c r="A466" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B466" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15.5">
+      <c r="A467" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B467" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15.5">
+      <c r="A468" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B468" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15.5">
+      <c r="A469" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B469" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15.5">
+      <c r="A470" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B470" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15.5">
+      <c r="A471" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B471" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15.5">
+      <c r="A472" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B472" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15.5">
+      <c r="A473" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B473" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15.5">
+      <c r="A474" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B474" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15.5">
+      <c r="A475" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B475" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15.5">
+      <c r="A476" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B476" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15.5">
+      <c r="A477" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B477" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15.5">
+      <c r="A478" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B478" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15.5">
+      <c r="A479" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B479" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15.5">
+      <c r="A480" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B480" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15.5">
+      <c r="A481" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B481" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15.5">
+      <c r="A482" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B482" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15.5">
+      <c r="A483" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B483" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15.5">
+      <c r="A484" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B484" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15.5">
+      <c r="A485" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B485" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15.5">
+      <c r="A486" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B486" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15.5">
+      <c r="A487" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B487" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15.5">
+      <c r="A488" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B488" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15.5">
+      <c r="A489" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B489" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15.5">
+      <c r="A490" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B490" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15.5">
+      <c r="A491" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B491" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15.5">
+      <c r="A492" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B492" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15.5">
+      <c r="A493" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B493" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15.5">
+      <c r="A494" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B494" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15.5">
+      <c r="A495" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B495" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15.5">
+      <c r="A496" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B496" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="15.5">
+      <c r="A497" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B497" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="15.5">
+      <c r="A498" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B498" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="15.5">
+      <c r="A499" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B499" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="15.5">
+      <c r="A500" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B500" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15.5">
+      <c r="A501" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B501" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="15.5">
+      <c r="A502" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B502" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="15.5">
+      <c r="A503" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B503" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="15.5">
+      <c r="A504" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B504" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="15.5">
+      <c r="A505" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B505" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="15.5">
+      <c r="A506" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B506" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="15.5">
+      <c r="A507" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B507" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="15.5">
+      <c r="A508" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B508" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="15.5">
+      <c r="A509" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B509" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="15.5">
+      <c r="A510" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B510" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="15.5">
+      <c r="A511" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B511" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="15.5">
+      <c r="A512" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B512" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="15.5">
+      <c r="A513" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B513" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="15.5">
+      <c r="A514" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B514" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="15.5">
+      <c r="A515" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B515" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="15.5">
+      <c r="A516" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B516" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="15.5">
+      <c r="A517" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B517" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="15.5">
+      <c r="A518" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B518" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="15.5">
+      <c r="A519" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B519" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="15.5">
+      <c r="A520" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B520" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="15.5">
+      <c r="A521" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B521" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="15.5">
+      <c r="A522" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B522" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="15.5">
+      <c r="A523" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B523" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="15.5">
+      <c r="A524" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B524" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="15.5">
+      <c r="A525" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B525" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="15.5">
+      <c r="A526" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B526" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="15.5">
+      <c r="A527" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B527" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="15.5">
+      <c r="A528" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B528" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="15.5">
+      <c r="A529" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B529" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="15.5">
+      <c r="A530" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B530" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="15.5">
+      <c r="A531" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B531" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="15.5">
+      <c r="A532" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B532" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="15.5">
+      <c r="A533" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B533" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="15.5">
+      <c r="A534" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B534" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="15.5">
+      <c r="A535" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B535" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="15.5">
+      <c r="A536" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B536" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="15.5">
+      <c r="A537" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B537" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="15.5">
+      <c r="A538" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B538" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="15.5">
+      <c r="A539" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B539" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="15.5">
+      <c r="A540" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B540" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="15.5">
+      <c r="A541" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B541" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="15.5">
+      <c r="A542" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B542" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="15.5">
+      <c r="A543" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B543" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>